--- a/TestResults/ScriptPost.xlsx
+++ b/TestResults/ScriptPost.xlsx
@@ -56,34 +56,34 @@
     <t>Post</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"AutomationAutomationAu"
 	},
 	"refScript":
 	{
-		"scrptCd":"@#$^",
-		"scrptNm":"TElUGU12up",
-		"scrptDesc":"TestDesc123d"
+		"scrptCd":"UserName UserNameO",
+		"scrptNm":"UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UseI",
+		"scrptDesc":"UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUX"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_ScriptCode: @#$^
-Input_ScriptName: TElUGU12up
-Input_ScriptDesc: TestDesc123d
-Input_LastUpdateUserName: 3572253
+    <t xml:space="preserve">Input_UserName: AutomationAutomationAu
+Input_ScriptCode: UserName UserNameO
+Input_ScriptName: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UseI
+Input_ScriptDesc: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUX
+Input_LastUpdateUserName: AutomationAutomationAu
 </t>
   </si>
   <si>
-    <t>DB_UserName: 3572253
-DB_ScriptCode: @#$^
-DB_ScriptName: TElUGU12up
-DB_ScriptDesc: TestDesc123d
-DB_LastUpdateUserName: 3572253
+    <t xml:space="preserve">DB_UserName: AutomationAutomationAu
+DB_ScriptCode: UserName UserNameO
+DB_ScriptName: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UseI
+DB_ScriptDesc: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUX
+DB_LastUpdateUserName: AutomationAutomationAu
 </t>
   </si>
   <si>
@@ -93,22 +93,22 @@
     <t>200</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253",
+		"userName":"AutomationAutomationAu",
 		"version":"1.0.0",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"REFSCRIPT Details successfully saved with scrptCd :@#$^",
+			"internalMessage":"REFSCRIPT Details successfully saved with scrptCd :UserName UserNameO",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"scrptCd":"@#$^"
+		"scrptCd":"UserName UserNameO"
 	}
 }</t>
   </si>
@@ -310,17 +310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
